--- a/templates/AutomationOrg/SYDATA.xlsx
+++ b/templates/AutomationOrg/SYDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55388FDC-74D2-47DC-8647-A2B444D7E60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F47F03-8BA5-46A5-8D96-3B8BDFBF42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <sheet name="ApproveInvoice" sheetId="22" r:id="rId26"/>
     <sheet name="TransferInvoice" sheetId="23" r:id="rId27"/>
     <sheet name="ApproveInvoiceBatch" sheetId="24" r:id="rId28"/>
-    <sheet name="Picklist" sheetId="26" r:id="rId29"/>
+    <sheet name="Picklist" sheetId="40" r:id="rId29"/>
     <sheet name="PackingSlip" sheetId="27" r:id="rId30"/>
     <sheet name="DeapproveInvoiceBatch" sheetId="29" r:id="rId31"/>
     <sheet name="ReopenInvoiceBatch" sheetId="30" r:id="rId32"/>
@@ -1765,17 +1765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C1F3E-1893-487E-81FC-3D1397F0FBF8}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402FED58-5BFA-4D3E-A126-FFC19348C836}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1799,12 +1796,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2022,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F24E3-35CE-4D20-B93D-E042852331C2}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>

--- a/templates/AutomationOrg/SYDATA.xlsx
+++ b/templates/AutomationOrg/SYDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F47F03-8BA5-46A5-8D96-3B8BDFBF42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5412B327-3557-4904-B5D8-814DC858943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -774,7 +774,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -814,7 +814,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -854,7 +854,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>47</v>
@@ -901,7 +901,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>47</v>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +976,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>47</v>
@@ -996,7 +996,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>47</v>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1420,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1476,7 +1476,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1585,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1659,7 +1659,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1718,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402FED58-5BFA-4D3E-A126-FFC19348C836}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1864,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1966,7 @@
         <v>51</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2000,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F24E3-35CE-4D20-B93D-E042852331C2}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2094,7 @@
         <v>64</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>65</v>
@@ -2112,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -2137,7 +2137,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2244,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -2272,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2286,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2300,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2320,7 +2320,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2345,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2427,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>

--- a/templates/AutomationOrg/SYDATA.xlsx
+++ b/templates/AutomationOrg/SYDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5412B327-3557-4904-B5D8-814DC858943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D761729-2F6A-4093-B02F-543F660283EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20505" yWindow="60" windowWidth="28710" windowHeight="10890" tabRatio="761" firstSheet="6" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C02362-B38D-4703-8703-8411DD765CC8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1966,7 @@
         <v>51</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2000,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2015,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F24E3-35CE-4D20-B93D-E042852331C2}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>

--- a/templates/AutomationOrg/SYDATA.xlsx
+++ b/templates/AutomationOrg/SYDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D761729-2F6A-4093-B02F-543F660283EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE48A24-589B-47C0-8E2E-967BEFA96BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20505" yWindow="60" windowWidth="28710" windowHeight="10890" tabRatio="761" firstSheet="6" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="761" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="82">
   <si>
     <t>API Mode</t>
   </si>
@@ -292,21 +292,6 @@
     <t>a9L5f000000seuO</t>
   </si>
   <si>
-    <t>a7S5f000000kRvX</t>
-  </si>
-  <si>
-    <t>a7S5f000000kRvc</t>
-  </si>
-  <si>
-    <t>a7S5f000000kRvh</t>
-  </si>
-  <si>
-    <t>a7S5f000000kRvm</t>
-  </si>
-  <si>
-    <t>a7S5f000000kRvr</t>
-  </si>
-  <si>
     <t>Cust-Dollar WF1</t>
   </si>
   <si>
@@ -314,6 +299,21 @@
   </si>
   <si>
     <t>Transaction Type Sales Invoice Payment</t>
+  </si>
+  <si>
+    <t>a7S5f000000kWRq</t>
+  </si>
+  <si>
+    <t>a7S5f000000kWRv</t>
+  </si>
+  <si>
+    <t>a7S5f000000kWS0</t>
+  </si>
+  <si>
+    <t>a7S5f000000kWS5</t>
+  </si>
+  <si>
+    <t>a7S5f000000kWSA</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181E8131-9527-40DC-8D03-4B9B215C5399}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1304,7 +1304,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1339,7 +1339,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1374,7 +1374,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1391,6 +1391,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1514,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9959975-5A1E-4505-BB0C-580D3FB3CD34}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1526,7 @@
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1535,8 +1536,11 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1545,6 +1549,9 @@
       </c>
       <c r="C2" t="b">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1733,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C02362-B38D-4703-8703-8411DD765CC8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1762,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1887,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1908,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1921,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1942,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1955,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1973,7 @@
         <v>51</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1986,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2007,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2016,7 +2023,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2066,7 @@
         <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>14</v>
@@ -2079,13 +2086,13 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
